--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -8,18 +8,101 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DoctorDetails" r:id="rId5" sheetId="2"/>
+    <sheet name="Surgeries" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+  <si>
+    <t>Doctor Name</t>
+  </si>
+  <si>
+    <t>Doctor Specialization</t>
+  </si>
+  <si>
+    <t>Doctor Experience</t>
+  </si>
+  <si>
+    <t>Doctor Location</t>
+  </si>
+  <si>
+    <t>Doctor Fee</t>
+  </si>
+  <si>
+    <t>Dr. Balaji K</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>28 years experience overall</t>
+  </si>
+  <si>
+    <t>Anna Nagar,Chennai  KB DENTAL CLINIC ORTHODONTIC AND IMPLANT CENTER</t>
+  </si>
+  <si>
+    <t>₹600 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Sridevi. R</t>
+  </si>
+  <si>
+    <t>19 years experience overall</t>
+  </si>
+  <si>
+    <t>Semmancheri,Chennai  The Shree's Dental Clinic</t>
+  </si>
+  <si>
+    <t>₹500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Praveen kumar</t>
+  </si>
+  <si>
+    <t>8 years experience overall</t>
+  </si>
+  <si>
+    <t>Kolathur,Chennai  Thamarai Dental Clinic</t>
+  </si>
+  <si>
+    <t>Dr. Ajay Mohan</t>
+  </si>
+  <si>
+    <t>15 years experience overall</t>
+  </si>
+  <si>
+    <t>Mylapore,Chennai  Impressions Dental, Cosmetic, Craniofacial Centre + 1 more</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Jacob</t>
+  </si>
+  <si>
+    <t>22 years experience overall</t>
+  </si>
+  <si>
+    <t>Tambaram East,Chennai  Dr Jacobs Dentacare Clinic</t>
+  </si>
+  <si>
+    <t>₹550 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Surgery Name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,4 +422,232 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="91">
   <si>
     <t>Doctor Name</t>
   </si>
@@ -96,6 +96,204 @@
   </si>
   <si>
     <t>Surgery Name</t>
+  </si>
+  <si>
+    <t>Piles</t>
+  </si>
+  <si>
+    <t>Hernia Treatment</t>
+  </si>
+  <si>
+    <t>Kidney Stone</t>
+  </si>
+  <si>
+    <t>Cataract</t>
+  </si>
+  <si>
+    <t>Circumcision</t>
+  </si>
+  <si>
+    <t>Lasik</t>
+  </si>
+  <si>
+    <t>Varicose Veins</t>
+  </si>
+  <si>
+    <t>Gallstone</t>
+  </si>
+  <si>
+    <t>Anal Fistula</t>
+  </si>
+  <si>
+    <t>Gynaecomastia</t>
+  </si>
+  <si>
+    <t>Anal Fissure</t>
+  </si>
+  <si>
+    <t>Lipoma Removal</t>
+  </si>
+  <si>
+    <t>Sebaceous cyst</t>
+  </si>
+  <si>
+    <t>Pilonidal Sinus</t>
+  </si>
+  <si>
+    <t>Lump in Breast</t>
+  </si>
+  <si>
+    <t>TURP</t>
+  </si>
+  <si>
+    <t>Hydrocele</t>
+  </si>
+  <si>
+    <t>Knee Replacement</t>
+  </si>
+  <si>
+    <t>Hair Transplant</t>
+  </si>
+  <si>
+    <t>Dr. Vigneswaran</t>
+  </si>
+  <si>
+    <t>16 years experience overall</t>
+  </si>
+  <si>
+    <t>Tambaram,Chennai  Apollo Dental</t>
+  </si>
+  <si>
+    <t>Dr. Dhivya Darshani D</t>
+  </si>
+  <si>
+    <t>11 years experience overall</t>
+  </si>
+  <si>
+    <t>Sembakkam,Chennai  Thanushya Dental Clinic</t>
+  </si>
+  <si>
+    <t>₹200 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. N.R Shrinivaasan</t>
+  </si>
+  <si>
+    <t>Vyasarpadi,Chennai  Dr.Shrini's Dental Care + 1 more</t>
+  </si>
+  <si>
+    <t>₹250 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Ashwin Nehrudhas</t>
+  </si>
+  <si>
+    <t>13 years experience overall</t>
+  </si>
+  <si>
+    <t>Mylapore,Chennai  The Dental Office By LPM</t>
+  </si>
+  <si>
+    <t>Dr. A Shafath Ahmed</t>
+  </si>
+  <si>
+    <t>27 years experience overall</t>
+  </si>
+  <si>
+    <t>Vadapalani,Chennai  Apollo Dental</t>
+  </si>
+  <si>
+    <t>Dr. Swarnalatha Bejjam</t>
+  </si>
+  <si>
+    <t>17 years experience overall</t>
+  </si>
+  <si>
+    <t>Whitefield,Bangalore  Smaya's Dento Care</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Thomas K</t>
+  </si>
+  <si>
+    <t>9 years experience overall</t>
+  </si>
+  <si>
+    <t>Richmond Town,Bangalore  Gleneagles Global Hospitals</t>
+  </si>
+  <si>
+    <t>Dr. Murali Mohan .C.R</t>
+  </si>
+  <si>
+    <t>Jayanagar,Bangalore  Apollo Speciality Hospitals + 1 more</t>
+  </si>
+  <si>
+    <t>₹750 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Amul Eknath Gandhi</t>
+  </si>
+  <si>
+    <t>Kalyan Nagar,Bangalore  Trilife Hospital + 2 more</t>
+  </si>
+  <si>
+    <t>₹850 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Raksha Venugopal</t>
+  </si>
+  <si>
+    <t>7 years experience overall</t>
+  </si>
+  <si>
+    <t>Dr. Senthil Kumar</t>
+  </si>
+  <si>
+    <t>Velachery,Chennai  Endocare Multispeciality Dental Clinic</t>
+  </si>
+  <si>
+    <t>₹400 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. L.Vijay Amirtharaj</t>
+  </si>
+  <si>
+    <t>Velachery,Chennai  Apollo Dental</t>
+  </si>
+  <si>
+    <t>Dr. B Gajapathi</t>
+  </si>
+  <si>
+    <t>Dr. Karthikeyan S</t>
+  </si>
+  <si>
+    <t>23 years experience overall</t>
+  </si>
+  <si>
+    <t>Greams Road,Chennai  Apollo Hospital + 2 more</t>
+  </si>
+  <si>
+    <t>₹1000 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Saket Miglani</t>
+  </si>
+  <si>
+    <t>25 years experience overall</t>
+  </si>
+  <si>
+    <t>Greams Road,Chennai  Apollo Hospital + 1 more</t>
+  </si>
+  <si>
+    <t>Dr. K. Anusha Unni Nishanth</t>
+  </si>
+  <si>
+    <t>Adyar,Chennai  Smile Mantra Dental &amp; Cosmetic Clinic</t>
+  </si>
+  <si>
+    <t>Dr. M. Phani Babu</t>
+  </si>
+  <si>
+    <t>Adyar,Chennai  Dent Eazee Speciality Dental Centres</t>
   </si>
 </sst>
 </file>
@@ -451,19 +649,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -485,33 +683,33 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>13</v>
@@ -519,19 +717,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -554,97 +752,97 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="94">
   <si>
     <t>Doctor Name</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>Adyar,Chennai  Dent Eazee Speciality Dental Centres</t>
+  </si>
+  <si>
+    <t>Dr. Abhilash Bhaskaran</t>
+  </si>
+  <si>
+    <t>Perumbakkam,Chennai  Gleneagles Health City + 1 more</t>
+  </si>
+  <si>
+    <t>₹800 Consultation fee at clinic</t>
   </si>
 </sst>
 </file>
@@ -649,19 +658,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -717,19 +726,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="94">
   <si>
     <t>Doctor Name</t>
   </si>

--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="94">
   <si>
     <t>Doctor Name</t>
   </si>
